--- a/videohub_pach_defoult.xlsx
+++ b/videohub_pach_defoult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Desktop\videohub_preset-a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRIDGE\Desktop\videohub_preset\videohub_preset_40x40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442C68EB-49A8-4CCD-95ED-4CD90F90851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983CCB1-C7DD-4F63-9C84-8CA45E002015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="1890" windowWidth="12810" windowHeight="14310" xr2:uid="{3926CFE1-45C6-4FCC-9615-6185F4CDF296}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{3926CFE1-45C6-4FCC-9615-6185F4CDF296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>input19</t>
   </si>
   <si>
-    <t>input20</t>
-  </si>
-  <si>
     <t>input21</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -153,9 +150,6 @@
   </si>
   <si>
     <t>output32</t>
-  </si>
-  <si>
-    <t>output33</t>
   </si>
   <si>
     <t>output34</t>
@@ -275,9 +269,6 @@
     <t>output5</t>
   </si>
   <si>
-    <t>output25</t>
-  </si>
-  <si>
     <t>output6</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
   </si>
   <si>
     <t>output18</t>
-  </si>
-  <si>
-    <t>output38</t>
   </si>
   <si>
     <t>output19</t>
@@ -337,6 +325,22 @@
   </si>
   <si>
     <t>192.168.0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output38</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output33</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -698,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,18 +727,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,9 +757,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -774,9 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,8 +778,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +1126,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1120,16 +1140,16 @@
     <col min="7" max="8" width="10.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="3.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="3.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="20" customWidth="1"/>
     <col min="12" max="12" width="10.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
-    <col min="15" max="16" width="6.875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="3.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -1139,61 +1159,61 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
+      <c r="D2" s="11"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="21"/>
+      <c r="M2" s="18"/>
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="A3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="C3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
         <v>21</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="14">
+      <c r="G3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="28">
         <v>1</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>21</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="20">
+      <c r="K3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="30">
         <v>21</v>
       </c>
       <c r="O3" s="5">
@@ -1206,36 +1226,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12">
         <v>22</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="14">
+      <c r="G4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="28">
         <v>2</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>22</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="20">
+      <c r="K4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="30">
         <v>22</v>
       </c>
       <c r="O4" s="5">
@@ -1248,36 +1268,36 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="C5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
         <v>23</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="14">
+      <c r="G5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="28">
         <v>3</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>23</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="20">
+      <c r="K5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="30">
         <v>23</v>
       </c>
       <c r="O5" s="5">
@@ -1290,36 +1310,36 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="14">
+      <c r="G6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="28">
         <v>4</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <v>24</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="20">
+      <c r="K6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="30">
         <v>24</v>
       </c>
       <c r="O6" s="5">
@@ -1332,36 +1352,36 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12">
         <v>25</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="14">
+      <c r="G7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="28">
         <v>5</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <v>25</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="20">
+      <c r="K7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="30">
         <v>25</v>
       </c>
       <c r="O7" s="5">
@@ -1374,36 +1394,36 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12">
         <v>26</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="14">
+      <c r="G8" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="28">
         <v>6</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <v>26</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="20">
+      <c r="K8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="30">
         <v>26</v>
       </c>
       <c r="O8" s="5">
@@ -1416,36 +1436,36 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12">
         <v>27</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>7</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="14">
+      <c r="G9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="28">
         <v>7</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <v>27</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="20">
+      <c r="K9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="30">
         <v>27</v>
       </c>
       <c r="O9" s="5">
@@ -1458,36 +1478,36 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="C10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12">
         <v>28</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>8</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="14">
+      <c r="G10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="28">
         <v>8</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="16">
         <v>28</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="20">
+      <c r="K10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="30">
         <v>28</v>
       </c>
       <c r="O10" s="5">
@@ -1500,36 +1520,36 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="C11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12">
         <v>29</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>9</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="14">
+      <c r="G11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="28">
         <v>9</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <v>29</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="20">
+      <c r="K11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="30">
         <v>29</v>
       </c>
       <c r="O11" s="5">
@@ -1542,36 +1562,36 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="C12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="12">
         <v>30</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>10</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="14">
+      <c r="G12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="28">
         <v>10</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <v>30</v>
       </c>
-      <c r="K12" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="20">
+      <c r="K12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="30">
         <v>30</v>
       </c>
       <c r="O12" s="5">
@@ -1584,36 +1604,36 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12">
         <v>31</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>11</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="14">
+      <c r="G13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="28">
         <v>11</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <v>31</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="20">
+      <c r="K13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="30">
         <v>31</v>
       </c>
       <c r="O13" s="5">
@@ -1626,36 +1646,36 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12">
         <v>32</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="14">
+      <c r="G14" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="28">
         <v>12</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="16">
         <v>32</v>
       </c>
-      <c r="K14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="20">
+      <c r="K14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="30">
         <v>32</v>
       </c>
       <c r="O14" s="5">
@@ -1668,36 +1688,36 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="A15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12">
         <v>33</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>13</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="14">
+      <c r="G15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="28">
         <v>13</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <v>33</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="20">
+      <c r="K15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="30">
         <v>33</v>
       </c>
       <c r="O15" s="5">
@@ -1710,36 +1730,36 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="12">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="12">
         <v>34</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="14">
+      <c r="G16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="28">
         <v>14</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="16">
         <v>34</v>
       </c>
-      <c r="K16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="20">
+      <c r="K16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="30">
         <v>34</v>
       </c>
       <c r="O16" s="5">
@@ -1752,36 +1772,36 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="A17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="12">
         <v>35</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="14">
+      <c r="G17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="28">
         <v>15</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="16">
         <v>35</v>
       </c>
-      <c r="K17" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="20">
+      <c r="K17" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="30">
         <v>35</v>
       </c>
       <c r="O17" s="5">
@@ -1794,36 +1814,36 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12">
         <v>36</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>16</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="14">
+      <c r="G18" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="28">
         <v>16</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <v>36</v>
       </c>
-      <c r="K18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="20">
+      <c r="K18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="30">
         <v>36</v>
       </c>
       <c r="O18" s="5">
@@ -1836,36 +1856,36 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12">
         <v>37</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>17</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14">
+      <c r="G19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28">
         <v>17</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="16">
         <v>37</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="20">
+      <c r="K19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="30">
         <v>37</v>
       </c>
       <c r="O19" s="5">
@@ -1878,36 +1898,36 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12">
         <v>38</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>18</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="14">
+      <c r="G20" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="28">
         <v>18</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="16">
         <v>38</v>
       </c>
-      <c r="K20" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="20">
+      <c r="K20" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="26"/>
+      <c r="M20" s="30">
         <v>38</v>
       </c>
       <c r="O20" s="5">
@@ -1920,36 +1940,36 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="12">
         <v>39</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>19</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="14">
+      <c r="G21" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="28">
         <v>19</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="16">
         <v>39</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="20">
+      <c r="K21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="30">
         <v>39</v>
       </c>
       <c r="O21" s="5">
@@ -1962,36 +1982,36 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="15">
+      <c r="A22" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="13">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="15">
+      <c r="C22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="13">
         <v>40</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>20</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="14">
+      <c r="G22" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="28">
         <v>20</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>40</v>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="20">
+      <c r="K22" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="26"/>
+      <c r="M22" s="30">
         <v>40</v>
       </c>
       <c r="O22" s="5">
@@ -2005,65 +2025,66 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2"/>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>92</v>
+      <c r="A24" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28" t="s">
+      <c r="I25" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="rkHw05kPtYGkStvXzu6zECOTaJ53s9eLuI9PFa4YjKqYOAJ85yt38jpUEgpWdLBAdoYh5KZxrVLV5q72RUtIxQ==" saltValue="c1MvBQ/VgrPqQfg7btD85Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="6">
     <mergeCell ref="L25:M26"/>
     <mergeCell ref="I25:K25"/>

--- a/videohub_pach_defoult.xlsx
+++ b/videohub_pach_defoult.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRIDGE\Desktop\videohub_preset\videohub_preset_40x40\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Desktop\videohub_preset_40x40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983CCB1-C7DD-4F63-9C84-8CA45E002015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A62BA-7CC3-4EF1-9EFE-B3C50AE3E82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{3926CFE1-45C6-4FCC-9615-6185F4CDF296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3926CFE1-45C6-4FCC-9615-6185F4CDF296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,15 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,9 +796,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,7 +1123,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1184,13 +1181,13 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="12">
@@ -1199,21 +1196,21 @@
       <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="28">
+      <c r="H3" s="23"/>
+      <c r="I3" s="25">
         <v>1</v>
       </c>
       <c r="J3" s="15">
         <v>21</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="30">
+      <c r="L3" s="23"/>
+      <c r="M3" s="27">
         <v>21</v>
       </c>
       <c r="O3" s="5">
@@ -1226,13 +1223,13 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="12">
@@ -1241,21 +1238,21 @@
       <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="28">
+      <c r="H4" s="23"/>
+      <c r="I4" s="25">
         <v>2</v>
       </c>
       <c r="J4" s="16">
         <v>22</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="30">
+      <c r="L4" s="23"/>
+      <c r="M4" s="27">
         <v>22</v>
       </c>
       <c r="O4" s="5">
@@ -1268,13 +1265,13 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="12">
@@ -1283,21 +1280,21 @@
       <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="28">
+      <c r="H5" s="23"/>
+      <c r="I5" s="25">
         <v>3</v>
       </c>
       <c r="J5" s="16">
         <v>23</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="30">
+      <c r="L5" s="23"/>
+      <c r="M5" s="27">
         <v>23</v>
       </c>
       <c r="O5" s="5">
@@ -1310,13 +1307,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="12">
@@ -1325,21 +1322,21 @@
       <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="28">
+      <c r="H6" s="23"/>
+      <c r="I6" s="25">
         <v>4</v>
       </c>
       <c r="J6" s="16">
         <v>24</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="30">
+      <c r="L6" s="23"/>
+      <c r="M6" s="27">
         <v>24</v>
       </c>
       <c r="O6" s="5">
@@ -1352,13 +1349,13 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12">
@@ -1367,21 +1364,21 @@
       <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="28">
+      <c r="H7" s="23"/>
+      <c r="I7" s="25">
         <v>5</v>
       </c>
       <c r="J7" s="16">
         <v>25</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="30">
+      <c r="L7" s="23"/>
+      <c r="M7" s="27">
         <v>25</v>
       </c>
       <c r="O7" s="5">
@@ -1394,13 +1391,13 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="12">
@@ -1409,21 +1406,21 @@
       <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="28">
+      <c r="H8" s="23"/>
+      <c r="I8" s="25">
         <v>6</v>
       </c>
       <c r="J8" s="16">
         <v>26</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="30">
+      <c r="L8" s="23"/>
+      <c r="M8" s="27">
         <v>26</v>
       </c>
       <c r="O8" s="5">
@@ -1436,13 +1433,13 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="12">
@@ -1451,21 +1448,21 @@
       <c r="F9" s="8">
         <v>7</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="28">
+      <c r="H9" s="23"/>
+      <c r="I9" s="25">
         <v>7</v>
       </c>
       <c r="J9" s="16">
         <v>27</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="30">
+      <c r="L9" s="23"/>
+      <c r="M9" s="27">
         <v>27</v>
       </c>
       <c r="O9" s="5">
@@ -1478,13 +1475,13 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="12">
@@ -1493,21 +1490,21 @@
       <c r="F10" s="8">
         <v>8</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="28">
+      <c r="H10" s="23"/>
+      <c r="I10" s="25">
         <v>8</v>
       </c>
       <c r="J10" s="16">
         <v>28</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="30">
+      <c r="L10" s="23"/>
+      <c r="M10" s="27">
         <v>28</v>
       </c>
       <c r="O10" s="5">
@@ -1520,13 +1517,13 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="12">
@@ -1535,21 +1532,21 @@
       <c r="F11" s="8">
         <v>9</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="28">
+      <c r="H11" s="23"/>
+      <c r="I11" s="25">
         <v>9</v>
       </c>
       <c r="J11" s="16">
         <v>29</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="30">
+      <c r="L11" s="23"/>
+      <c r="M11" s="27">
         <v>29</v>
       </c>
       <c r="O11" s="5">
@@ -1562,13 +1559,13 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="12">
@@ -1577,21 +1574,21 @@
       <c r="F12" s="8">
         <v>10</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="28">
+      <c r="H12" s="23"/>
+      <c r="I12" s="25">
         <v>10</v>
       </c>
       <c r="J12" s="16">
         <v>30</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="30">
+      <c r="L12" s="23"/>
+      <c r="M12" s="27">
         <v>30</v>
       </c>
       <c r="O12" s="5">
@@ -1604,13 +1601,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="12">
@@ -1619,21 +1616,21 @@
       <c r="F13" s="8">
         <v>11</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="28">
+      <c r="H13" s="23"/>
+      <c r="I13" s="25">
         <v>11</v>
       </c>
       <c r="J13" s="16">
         <v>31</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="30">
+      <c r="L13" s="23"/>
+      <c r="M13" s="27">
         <v>31</v>
       </c>
       <c r="O13" s="5">
@@ -1646,13 +1643,13 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="12">
         <v>12</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12">
@@ -1661,21 +1658,21 @@
       <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="28">
+      <c r="H14" s="23"/>
+      <c r="I14" s="25">
         <v>12</v>
       </c>
       <c r="J14" s="16">
         <v>32</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="30">
+      <c r="L14" s="23"/>
+      <c r="M14" s="27">
         <v>32</v>
       </c>
       <c r="O14" s="5">
@@ -1688,13 +1685,13 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12">
@@ -1703,21 +1700,21 @@
       <c r="F15" s="8">
         <v>13</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="28">
+      <c r="H15" s="23"/>
+      <c r="I15" s="25">
         <v>13</v>
       </c>
       <c r="J15" s="16">
         <v>33</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="30">
+      <c r="L15" s="23"/>
+      <c r="M15" s="27">
         <v>33</v>
       </c>
       <c r="O15" s="5">
@@ -1730,13 +1727,13 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="12">
         <v>14</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="12">
@@ -1745,21 +1742,21 @@
       <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="28">
+      <c r="H16" s="23"/>
+      <c r="I16" s="25">
         <v>14</v>
       </c>
       <c r="J16" s="16">
         <v>34</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="30">
+      <c r="L16" s="23"/>
+      <c r="M16" s="27">
         <v>34</v>
       </c>
       <c r="O16" s="5">
@@ -1772,13 +1769,13 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="12">
@@ -1787,21 +1784,21 @@
       <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="28">
+      <c r="H17" s="23"/>
+      <c r="I17" s="25">
         <v>15</v>
       </c>
       <c r="J17" s="16">
         <v>35</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="30">
+      <c r="L17" s="23"/>
+      <c r="M17" s="27">
         <v>35</v>
       </c>
       <c r="O17" s="5">
@@ -1814,13 +1811,13 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="12">
         <v>16</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="12">
@@ -1829,21 +1826,21 @@
       <c r="F18" s="8">
         <v>16</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="28">
+      <c r="H18" s="23"/>
+      <c r="I18" s="25">
         <v>16</v>
       </c>
       <c r="J18" s="16">
         <v>36</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="30">
+      <c r="L18" s="23"/>
+      <c r="M18" s="27">
         <v>36</v>
       </c>
       <c r="O18" s="5">
@@ -1856,13 +1853,13 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="12">
         <v>17</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="12">
@@ -1871,21 +1868,21 @@
       <c r="F19" s="8">
         <v>17</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="28">
+      <c r="H19" s="23"/>
+      <c r="I19" s="25">
         <v>17</v>
       </c>
       <c r="J19" s="16">
         <v>37</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="30">
+      <c r="L19" s="23"/>
+      <c r="M19" s="27">
         <v>37</v>
       </c>
       <c r="O19" s="5">
@@ -1898,13 +1895,13 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="12">
         <v>18</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="12">
@@ -1913,21 +1910,21 @@
       <c r="F20" s="8">
         <v>18</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="28">
+      <c r="H20" s="23"/>
+      <c r="I20" s="25">
         <v>18</v>
       </c>
       <c r="J20" s="16">
         <v>38</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="30">
+      <c r="L20" s="23"/>
+      <c r="M20" s="27">
         <v>38</v>
       </c>
       <c r="O20" s="5">
@@ -1940,13 +1937,13 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="12">
         <v>19</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="12">
@@ -1955,21 +1952,21 @@
       <c r="F21" s="8">
         <v>19</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="28">
+      <c r="H21" s="23"/>
+      <c r="I21" s="25">
         <v>19</v>
       </c>
       <c r="J21" s="16">
         <v>39</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="30">
+      <c r="L21" s="23"/>
+      <c r="M21" s="27">
         <v>39</v>
       </c>
       <c r="O21" s="5">
@@ -1982,13 +1979,13 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="13">
         <v>20</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="13">
@@ -1997,21 +1994,21 @@
       <c r="F22" s="9">
         <v>20</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="28">
+      <c r="H22" s="23"/>
+      <c r="I22" s="25">
         <v>20</v>
       </c>
       <c r="J22" s="17">
         <v>40</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="30">
+      <c r="L22" s="23"/>
+      <c r="M22" s="27">
         <v>40</v>
       </c>
       <c r="O22" s="5">
@@ -2032,59 +2029,59 @@
       <c r="I23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="28" t="s">
         <v>88</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="24" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="22" t="s">
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="22"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="32" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rkHw05kPtYGkStvXzu6zECOTaJ53s9eLuI9PFa4YjKqYOAJ85yt38jpUEgpWdLBAdoYh5KZxrVLV5q72RUtIxQ==" saltValue="c1MvBQ/VgrPqQfg7btD85Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LlqpnFPJuWVQKiaIXnGG7DiyWQw0QXzl0f52FuSsf5p0eJoo0HJvdOFpezrROkysJR3F4l5NaG+SQ1HRoRa6YA==" saltValue="SiTMT6UEpk1ojS2BRtRyRw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="6">
     <mergeCell ref="L25:M26"/>
     <mergeCell ref="I25:K25"/>
